--- a/data topik tertinggi.xlsx
+++ b/data topik tertinggi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goetheuniversitaet-my.sharepoint.com/personal/l9ma6sa7ah_goetheuniversitaet_onmicrosoft_com/Documents/002. DATA UTAMA DISERTASI SASTRA/primary data cybersastra.net/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{175C0903-2675-F948-8381-F1BE8D254EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CE7D191-CB31-5E4F-9D67-FBC6B858E840}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{175C0903-2675-F948-8381-F1BE8D254EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3682AA75-7148-8A4E-8AEC-B6E294B24A68}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" xr2:uid="{DA02A2CD-E21A-0C4F-A4C4-4060BC47BC0C}"/>
   </bookViews>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989B28AF-1E24-7443-86AC-AB68EE5B4B03}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="4">
-        <v>8.6989999999999998</v>
+        <v>9.6989999999999998</v>
       </c>
       <c r="C3" s="2">
         <v>0.25</v>
